--- a/Code/Results/Cases/Case_2_86/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_86/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9855999711268121</v>
+        <v>1.033094729696814</v>
       </c>
       <c r="D2">
-        <v>1.00619627724905</v>
+        <v>1.035023211189406</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.9926147277508489</v>
       </c>
       <c r="F2">
-        <v>0.9950049088948664</v>
+        <v>1.041687953765123</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039457050167616</v>
+        <v>1.034428272690362</v>
       </c>
       <c r="J2">
-        <v>1.008220083948111</v>
+        <v>1.038221341237811</v>
       </c>
       <c r="K2">
-        <v>1.017569957814505</v>
+        <v>1.037821005770137</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523336033</v>
       </c>
       <c r="M2">
-        <v>1.006534274731891</v>
+        <v>1.04446676183946</v>
       </c>
       <c r="N2">
-        <v>1.009651872111777</v>
+        <v>1.039695734628047</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9948197553058662</v>
+        <v>1.034770753831877</v>
       </c>
       <c r="D3">
-        <v>1.013108489046586</v>
+        <v>1.036266888631019</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519304</v>
       </c>
       <c r="F3">
-        <v>1.004313085650699</v>
+        <v>1.043452512421795</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042750029876718</v>
+        <v>1.0348928722299</v>
       </c>
       <c r="J3">
-        <v>1.015452642149549</v>
+        <v>1.039536252295286</v>
       </c>
       <c r="K3">
-        <v>1.023576347358927</v>
+        <v>1.038872836829243</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202692</v>
       </c>
       <c r="M3">
-        <v>1.014891075604317</v>
+        <v>1.046039498175515</v>
       </c>
       <c r="N3">
-        <v>1.016894701375447</v>
+        <v>1.04101251301002</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.000554219089752</v>
+        <v>1.035851639967672</v>
       </c>
       <c r="D4">
-        <v>1.017408842404178</v>
+        <v>1.037068344143259</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930995</v>
       </c>
       <c r="F4">
-        <v>1.010109935123522</v>
+        <v>1.044591067257671</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044780487872214</v>
+        <v>1.035190292103258</v>
       </c>
       <c r="J4">
-        <v>1.019943758503513</v>
+        <v>1.040383208032958</v>
       </c>
       <c r="K4">
-        <v>1.027301602084721</v>
+        <v>1.039549610107224</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668345</v>
       </c>
       <c r="M4">
-        <v>1.020087854463858</v>
+        <v>1.047053498422462</v>
       </c>
       <c r="N4">
-        <v>1.021392195629772</v>
+        <v>1.041860671521987</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.002913537644258</v>
+        <v>1.036305195437296</v>
       </c>
       <c r="D5">
-        <v>1.019178236787536</v>
+        <v>1.037404500177347</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.9945786998346017</v>
       </c>
       <c r="F5">
-        <v>1.012496640351124</v>
+        <v>1.045068958123512</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045611549528068</v>
+        <v>1.035314564967746</v>
       </c>
       <c r="J5">
-        <v>1.021789692235958</v>
+        <v>1.040738352260194</v>
       </c>
       <c r="K5">
-        <v>1.028831639860452</v>
+        <v>1.039833218674058</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.997117960005301</v>
       </c>
       <c r="M5">
-        <v>1.022225667797243</v>
+        <v>1.047478921644934</v>
       </c>
       <c r="N5">
-        <v>1.023240750799849</v>
+        <v>1.04221632009476</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.003306766793007</v>
+        <v>1.036381300069715</v>
       </c>
       <c r="D6">
-        <v>1.019473144797637</v>
+        <v>1.037460897076179</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9946255319796338</v>
       </c>
       <c r="F6">
-        <v>1.012894533656088</v>
+        <v>1.045149154148117</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045749806324519</v>
+        <v>1.035335386371866</v>
       </c>
       <c r="J6">
-        <v>1.02209724506083</v>
+        <v>1.040797929196257</v>
       </c>
       <c r="K6">
-        <v>1.029086494326859</v>
+        <v>1.039880784918519</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673453</v>
       </c>
       <c r="M6">
-        <v>1.022581959937568</v>
+        <v>1.047550301932708</v>
       </c>
       <c r="N6">
-        <v>1.023548740385009</v>
+        <v>1.042275981636906</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.000585941710048</v>
+        <v>1.035857703712411</v>
       </c>
       <c r="D7">
-        <v>1.01743263287316</v>
+        <v>1.037072838910112</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9943035907978915</v>
       </c>
       <c r="F7">
-        <v>1.010142019229744</v>
+        <v>1.044597455813352</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044791679310243</v>
+        <v>1.035191955631931</v>
       </c>
       <c r="J7">
-        <v>1.019968585699317</v>
+        <v>1.040387957069077</v>
       </c>
       <c r="K7">
-        <v>1.027322185050963</v>
+        <v>1.039553403248089</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624459041</v>
       </c>
       <c r="M7">
-        <v>1.020116600013681</v>
+        <v>1.047059186316851</v>
       </c>
       <c r="N7">
-        <v>1.021417058083042</v>
+        <v>1.041865427302282</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9887662611553829</v>
+        <v>1.033661907805316</v>
       </c>
       <c r="D8">
-        <v>1.008569743810626</v>
+        <v>1.03544420506921</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674294</v>
       </c>
       <c r="F8">
-        <v>0.9981999434143672</v>
+        <v>1.042284973819493</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040591642036417</v>
+        <v>1.034585953559973</v>
       </c>
       <c r="J8">
-        <v>1.010705425806596</v>
+        <v>1.038666532652597</v>
       </c>
       <c r="K8">
-        <v>1.019634870380203</v>
+        <v>1.038177276688953</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.9958175282591053</v>
       </c>
       <c r="M8">
-        <v>1.009404352945616</v>
+        <v>1.044999043454808</v>
       </c>
       <c r="N8">
-        <v>1.012140743440774</v>
+        <v>1.04014155826568</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9659616476487899</v>
+        <v>1.029764235838083</v>
       </c>
       <c r="D9">
-        <v>0.9914883359196038</v>
+        <v>1.03254867113996</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923925</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>0.9752238593423161</v>
+        <v>1.038184591162249</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032345726632028</v>
+        <v>1.033493296518491</v>
       </c>
       <c r="J9">
-        <v>0.9927764226268089</v>
+        <v>1.035602870036975</v>
       </c>
       <c r="K9">
-        <v>1.004721035152656</v>
+        <v>1.035722548853969</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832519</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>0.9887321234460502</v>
+        <v>1.041340058952694</v>
       </c>
       <c r="N9">
-        <v>0.9941862790199865</v>
+        <v>1.037073544897737</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9490870753917774</v>
+        <v>1.027145676352406</v>
       </c>
       <c r="D10">
-        <v>0.9788764864956465</v>
+        <v>1.030600351262787</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547282</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>0.9582724480832361</v>
+        <v>1.035432826841936</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.026152796790181</v>
+        <v>1.032747840857804</v>
       </c>
       <c r="J10">
-        <v>0.9794771824513742</v>
+        <v>1.033539245440912</v>
       </c>
       <c r="K10">
-        <v>0.9936379018023906</v>
+        <v>1.03406535373186</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689357</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>0.9734383185567566</v>
+        <v>1.03888045308385</v>
       </c>
       <c r="N10">
-        <v>0.9808681523980581</v>
+        <v>1.035006989718047</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9412858275309199</v>
+        <v>1.026006812893266</v>
       </c>
       <c r="D11">
-        <v>0.9730567289728302</v>
+        <v>1.029752288524085</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016258</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>0.9504491490711576</v>
+        <v>1.034236739362818</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.02326985506846</v>
+        <v>1.032420937170675</v>
       </c>
       <c r="J11">
-        <v>0.9733229839960933</v>
+        <v>1.032640465857694</v>
       </c>
       <c r="K11">
-        <v>0.9885052940445064</v>
+        <v>1.033342708972075</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>0.9663701939765504</v>
+        <v>1.037810391950828</v>
       </c>
       <c r="N11">
-        <v>0.9747052142750746</v>
+        <v>1.034106933764728</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9383033392942886</v>
+        <v>1.025583015825673</v>
       </c>
       <c r="D12">
-        <v>0.9708338377859956</v>
+        <v>1.029436601360021</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>0.947460415595043</v>
+        <v>1.033791754697762</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.022164877635246</v>
+        <v>1.032298885416121</v>
       </c>
       <c r="J12">
-        <v>0.9709694932679612</v>
+        <v>1.032305819471107</v>
       </c>
       <c r="K12">
-        <v>0.9865419915447856</v>
+        <v>1.033073512114785</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>0.9636685052078851</v>
+        <v>1.037412148506363</v>
       </c>
       <c r="N12">
-        <v>0.9723483813201592</v>
+        <v>1.033771812141888</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.938947120807184</v>
+        <v>1.025673957011573</v>
       </c>
       <c r="D13">
-        <v>0.9713135570142463</v>
+        <v>1.029504348272645</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>0.9481054438224649</v>
+        <v>1.033887237625814</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.022403514172492</v>
+        <v>1.032325094330866</v>
       </c>
       <c r="J13">
-        <v>0.9714775305849996</v>
+        <v>1.032377638699612</v>
       </c>
       <c r="K13">
-        <v>0.9869658209783403</v>
+        <v>1.033131291008358</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>0.9642516485803622</v>
+        <v>1.037497608452266</v>
       </c>
       <c r="N13">
-        <v>0.9728571401084606</v>
+        <v>1.033843733361936</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9410410915473437</v>
+        <v>1.025971797569</v>
       </c>
       <c r="D14">
-        <v>0.9728742794586748</v>
+        <v>1.029726207654176</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>0.9502038554353766</v>
+        <v>1.034199971280934</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.023179238660484</v>
+        <v>1.032410861127038</v>
       </c>
       <c r="J14">
-        <v>0.9731298746578874</v>
+        <v>1.032612820287994</v>
       </c>
       <c r="K14">
-        <v>0.9883442098052889</v>
+        <v>1.033320472949335</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>0.9661484881425506</v>
+        <v>1.037777488943408</v>
       </c>
       <c r="N14">
-        <v>0.9745118306994583</v>
+        <v>1.034079248935149</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9423196744933192</v>
+        <v>1.026155204010217</v>
       </c>
       <c r="D15">
-        <v>0.9738275429058193</v>
+        <v>1.029862812166019</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717475</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>0.9514854412011664</v>
+        <v>1.034392562845135</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.023652536975411</v>
+        <v>1.032463621837193</v>
       </c>
       <c r="J15">
-        <v>0.9741387162216699</v>
+        <v>1.032757616988177</v>
       </c>
       <c r="K15">
-        <v>0.9891857267303795</v>
+        <v>1.033436931178509</v>
       </c>
       <c r="L15">
-        <v>0.9494987508767193</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>0.9673067759823124</v>
+        <v>1.037949829284238</v>
       </c>
       <c r="N15">
-        <v>0.9755221049339772</v>
+        <v>1.034224251263255</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9495935550465407</v>
+        <v>1.027221151732975</v>
       </c>
       <c r="D16">
-        <v>0.9792545778568968</v>
+        <v>1.0306565399454</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>0.9587806483937652</v>
+        <v>1.035512109540261</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.026339572560083</v>
+        <v>1.032769449078452</v>
       </c>
       <c r="J16">
-        <v>0.9798766262793018</v>
+        <v>1.033598783222627</v>
       </c>
       <c r="K16">
-        <v>0.9939709660643512</v>
+        <v>1.034113205398479</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175715</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>0.9738972628663142</v>
+        <v>1.038951361844958</v>
       </c>
       <c r="N16">
-        <v>0.9812681634820385</v>
+        <v>1.035066612050241</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9540171389200282</v>
+        <v>1.027888437389302</v>
       </c>
       <c r="D17">
-        <v>0.982558068536045</v>
+        <v>1.031153229434407</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>0.9894763578477731</v>
       </c>
       <c r="F17">
-        <v>0.9632207788533717</v>
+        <v>1.036213137874287</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.02796866842506</v>
+        <v>1.032960179619202</v>
       </c>
       <c r="J17">
-        <v>0.9833647277631381</v>
+        <v>1.03412501680262</v>
       </c>
       <c r="K17">
-        <v>0.9968789892461959</v>
+        <v>1.034536048318171</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068054</v>
+        <v>0.9930127773692701</v>
       </c>
       <c r="M17">
-        <v>0.9779059498172541</v>
+        <v>1.039578235570565</v>
       </c>
       <c r="N17">
-        <v>0.9847612184700726</v>
+        <v>1.035593592942277</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9565504417910977</v>
+        <v>1.028277171787454</v>
       </c>
       <c r="D18">
-        <v>0.9844508856934227</v>
+        <v>1.031442513770082</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215685</v>
+        <v>0.9897087662937551</v>
       </c>
       <c r="F18">
-        <v>0.9657647952706653</v>
+        <v>1.036621597686448</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028899762227269</v>
+        <v>1.033071032796045</v>
       </c>
       <c r="J18">
-        <v>0.9853617406819739</v>
+        <v>1.034431457713723</v>
       </c>
       <c r="K18">
-        <v>0.9985435256928616</v>
+        <v>1.034782197302424</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865727</v>
+        <v>0.9932001317071766</v>
       </c>
       <c r="M18">
-        <v>0.9802018520917406</v>
+        <v>1.039943395815989</v>
       </c>
       <c r="N18">
-        <v>0.9867610673763137</v>
+        <v>1.035900469034623</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9574065622201166</v>
+        <v>1.028409639004721</v>
       </c>
       <c r="D19">
-        <v>0.9850907094950909</v>
+        <v>1.03154108036797</v>
       </c>
       <c r="E19">
-        <v>0.939759481468009</v>
+        <v>0.9897880325774039</v>
       </c>
       <c r="F19">
-        <v>0.9666247419909398</v>
+        <v>1.036760798213312</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029214101702355</v>
+        <v>1.033108763775688</v>
       </c>
       <c r="J19">
-        <v>0.9860365242798452</v>
+        <v>1.034535861436034</v>
       </c>
       <c r="K19">
-        <v>0.9991059014230318</v>
+        <v>1.034866045337919</v>
       </c>
       <c r="L19">
-        <v>0.954635249381271</v>
+        <v>0.993264023964098</v>
       </c>
       <c r="M19">
-        <v>0.9809777738004591</v>
+        <v>1.040067824385646</v>
       </c>
       <c r="N19">
-        <v>0.9874368092442924</v>
+        <v>1.036005021022195</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9535474501353909</v>
+        <v>1.027816893955387</v>
       </c>
       <c r="D20">
-        <v>0.9822072055044802</v>
+        <v>1.031099983539949</v>
       </c>
       <c r="E20">
-        <v>0.9380716924660139</v>
+        <v>0.9894336180355766</v>
       </c>
       <c r="F20">
-        <v>0.9627492032259227</v>
+        <v>1.036137969634027</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.027795886119339</v>
+        <v>1.032939757120349</v>
       </c>
       <c r="J20">
-        <v>0.9829944236957658</v>
+        <v>1.034068608982737</v>
       </c>
       <c r="K20">
-        <v>0.996570305315843</v>
+        <v>1.034490731858359</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9929783193490043</v>
       </c>
       <c r="M20">
-        <v>0.9774802918528044</v>
+        <v>1.039511028210014</v>
       </c>
       <c r="N20">
-        <v>0.9843903885284502</v>
+        <v>1.03553710501682</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9404269041777811</v>
+        <v>1.025884112432458</v>
       </c>
       <c r="D21">
-        <v>0.9724164402530859</v>
+        <v>1.029660894448305</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9882828385668255</v>
       </c>
       <c r="F21">
-        <v>0.9495883042270938</v>
+        <v>1.034107898625287</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.022951784233171</v>
+        <v>1.032385622255401</v>
       </c>
       <c r="J21">
-        <v>0.9726452388333381</v>
+        <v>1.032543587374487</v>
       </c>
       <c r="K21">
-        <v>0.9879399381243935</v>
+        <v>1.033264785065583</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981066</v>
+        <v>0.9920501090198107</v>
       </c>
       <c r="M21">
-        <v>0.9655921060150198</v>
+        <v>1.037695092661263</v>
       </c>
       <c r="N21">
-        <v>0.9740265066364496</v>
+        <v>1.034009917702963</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9316801907820158</v>
+        <v>1.024664416713426</v>
       </c>
       <c r="D22">
-        <v>0.9659018733886091</v>
+        <v>1.028752147157914</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651161</v>
+        <v>0.9875604150241496</v>
       </c>
       <c r="F22">
-        <v>0.9408276551809865</v>
+        <v>1.032827426118745</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.019706121967037</v>
+        <v>1.032033595237383</v>
       </c>
       <c r="J22">
-        <v>0.9657421289670441</v>
+        <v>1.031580111311026</v>
       </c>
       <c r="K22">
-        <v>0.982180497623914</v>
+        <v>1.032489496574212</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572517</v>
+        <v>0.991467000034148</v>
       </c>
       <c r="M22">
-        <v>0.9576701060264402</v>
+        <v>1.036548848078044</v>
       </c>
       <c r="N22">
-        <v>0.9671135935623478</v>
+        <v>1.03304507339298</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9363682345485471</v>
+        <v>1.025311431745536</v>
       </c>
       <c r="D23">
-        <v>0.9693922173159484</v>
+        <v>1.029234268904342</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963314</v>
+        <v>0.9879432794636459</v>
       </c>
       <c r="F23">
-        <v>0.9455218979340021</v>
+        <v>1.033506622941453</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.021447179576144</v>
+        <v>1.032220556862449</v>
       </c>
       <c r="J23">
-        <v>0.9694423307601712</v>
+        <v>1.032091312859189</v>
       </c>
       <c r="K23">
-        <v>0.9852678951913245</v>
+        <v>1.032900921366602</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285318</v>
+        <v>0.9917760702887607</v>
       </c>
       <c r="M23">
-        <v>0.9619157603179769</v>
+        <v>1.037156926240858</v>
       </c>
       <c r="N23">
-        <v>0.9708190500664402</v>
+        <v>1.033557000905977</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.95375982643996</v>
+        <v>1.027849222842695</v>
       </c>
       <c r="D24">
-        <v>0.9823658501040691</v>
+        <v>1.031124044384578</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011709</v>
+        <v>0.9894529299347241</v>
       </c>
       <c r="F24">
-        <v>0.9629624288501667</v>
+        <v>1.036171936279713</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.027874017838868</v>
+        <v>1.032948986394242</v>
       </c>
       <c r="J24">
-        <v>0.9831618635687945</v>
+        <v>1.034094098800077</v>
       </c>
       <c r="K24">
-        <v>0.9967098836544941</v>
+        <v>1.034511209924021</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442449</v>
+        <v>0.9929938892766438</v>
       </c>
       <c r="M24">
-        <v>0.9776727583907515</v>
+        <v>1.039541397820351</v>
       </c>
       <c r="N24">
-        <v>0.9845580661853039</v>
+        <v>1.035562631032624</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9721232413278441</v>
+        <v>1.030775346904531</v>
       </c>
       <c r="D25">
-        <v>0.9961000946178823</v>
+        <v>1.033300350254968</v>
       </c>
       <c r="E25">
-        <v>0.9463835801717733</v>
+        <v>0.9912096547607046</v>
       </c>
       <c r="F25">
-        <v>0.981423839312773</v>
+        <v>1.03924776532729</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.0345894851849</v>
+        <v>1.033778748752085</v>
       </c>
       <c r="J25">
-        <v>0.9976266206164613</v>
+        <v>1.036398573462286</v>
       </c>
       <c r="K25">
-        <v>1.008759254783584</v>
+        <v>1.036360756004403</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005611</v>
+        <v>0.9944092447426411</v>
       </c>
       <c r="M25">
-        <v>0.9943175377713889</v>
+        <v>1.042289498540844</v>
       </c>
       <c r="N25">
-        <v>0.9990433648471093</v>
+        <v>1.037870378313181</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_86/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_86/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.033094729696814</v>
+        <v>0.9855999711268151</v>
       </c>
       <c r="D2">
-        <v>1.035023211189406</v>
+        <v>1.006196277249052</v>
       </c>
       <c r="E2">
-        <v>0.9926147277508489</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.041687953765123</v>
+        <v>0.9950049088948688</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034428272690362</v>
+        <v>1.039457050167618</v>
       </c>
       <c r="J2">
-        <v>1.038221341237811</v>
+        <v>1.008220083948114</v>
       </c>
       <c r="K2">
-        <v>1.037821005770137</v>
+        <v>1.017569957814507</v>
       </c>
       <c r="L2">
-        <v>0.9955398523336033</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.04446676183946</v>
+        <v>1.006534274731894</v>
       </c>
       <c r="N2">
-        <v>1.039695734628047</v>
+        <v>1.00965187211178</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.034770753831877</v>
+        <v>0.9948197553058659</v>
       </c>
       <c r="D3">
-        <v>1.036266888631019</v>
+        <v>1.013108489046586</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519304</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.043452512421795</v>
+        <v>1.0043130856507</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.0348928722299</v>
+        <v>1.042750029876718</v>
       </c>
       <c r="J3">
-        <v>1.039536252295286</v>
+        <v>1.015452642149549</v>
       </c>
       <c r="K3">
-        <v>1.038872836829243</v>
+        <v>1.023576347358927</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202692</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.046039498175515</v>
+        <v>1.014891075604317</v>
       </c>
       <c r="N3">
-        <v>1.04101251301002</v>
+        <v>1.016894701375447</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.035851639967672</v>
+        <v>1.000554219089752</v>
       </c>
       <c r="D4">
-        <v>1.037068344143259</v>
+        <v>1.017408842404178</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930995</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.044591067257671</v>
+        <v>1.010109935123523</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.035190292103258</v>
+        <v>1.044780487872215</v>
       </c>
       <c r="J4">
-        <v>1.040383208032958</v>
+        <v>1.019943758503513</v>
       </c>
       <c r="K4">
-        <v>1.039549610107224</v>
+        <v>1.027301602084721</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668345</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.047053498422462</v>
+        <v>1.020087854463858</v>
       </c>
       <c r="N4">
-        <v>1.041860671521987</v>
+        <v>1.021392195629773</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.036305195437296</v>
+        <v>1.002913537644257</v>
       </c>
       <c r="D5">
-        <v>1.037404500177347</v>
+        <v>1.019178236787535</v>
       </c>
       <c r="E5">
-        <v>0.9945786998346017</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.045068958123512</v>
+        <v>1.012496640351123</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.035314564967746</v>
+        <v>1.045611549528068</v>
       </c>
       <c r="J5">
-        <v>1.040738352260194</v>
+        <v>1.021789692235957</v>
       </c>
       <c r="K5">
-        <v>1.039833218674058</v>
+        <v>1.028831639860452</v>
       </c>
       <c r="L5">
-        <v>0.997117960005301</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.047478921644934</v>
+        <v>1.022225667797242</v>
       </c>
       <c r="N5">
-        <v>1.04221632009476</v>
+        <v>1.023240750799848</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.036381300069715</v>
+        <v>1.003306766793008</v>
       </c>
       <c r="D6">
-        <v>1.037460897076179</v>
+        <v>1.019473144797638</v>
       </c>
       <c r="E6">
-        <v>0.9946255319796338</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.045149154148117</v>
+        <v>1.012894533656088</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.035335386371866</v>
+        <v>1.045749806324519</v>
       </c>
       <c r="J6">
-        <v>1.040797929196257</v>
+        <v>1.022097245060831</v>
       </c>
       <c r="K6">
-        <v>1.039880784918519</v>
+        <v>1.02908649432686</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673453</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.047550301932708</v>
+        <v>1.022581959937568</v>
       </c>
       <c r="N6">
-        <v>1.042275981636906</v>
+        <v>1.02354874038501</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.035857703712411</v>
+        <v>1.000585941710046</v>
       </c>
       <c r="D7">
-        <v>1.037072838910112</v>
+        <v>1.017432632873158</v>
       </c>
       <c r="E7">
-        <v>0.9943035907978915</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.044597455813352</v>
+        <v>1.010142019229742</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.035191955631931</v>
+        <v>1.044791679310242</v>
       </c>
       <c r="J7">
-        <v>1.040387957069077</v>
+        <v>1.019968585699315</v>
       </c>
       <c r="K7">
-        <v>1.039553403248089</v>
+        <v>1.027322185050961</v>
       </c>
       <c r="L7">
-        <v>0.9968970624459041</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.047059186316851</v>
+        <v>1.02011660001368</v>
       </c>
       <c r="N7">
-        <v>1.041865427302282</v>
+        <v>1.02141705808304</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.033661907805316</v>
+        <v>0.988766261155386</v>
       </c>
       <c r="D8">
-        <v>1.03544420506921</v>
+        <v>1.008569743810629</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674294</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.042284973819493</v>
+        <v>0.9981999434143695</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.034585953559973</v>
+        <v>1.040591642036418</v>
       </c>
       <c r="J8">
-        <v>1.038666532652597</v>
+        <v>1.010705425806599</v>
       </c>
       <c r="K8">
-        <v>1.038177276688953</v>
+        <v>1.019634870380206</v>
       </c>
       <c r="L8">
-        <v>0.9958175282591053</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.044999043454808</v>
+        <v>1.009404352945619</v>
       </c>
       <c r="N8">
-        <v>1.04014155826568</v>
+        <v>1.012140743440777</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.029764235838083</v>
+        <v>0.9659616476487871</v>
       </c>
       <c r="D9">
-        <v>1.03254867113996</v>
+        <v>0.9914883359196016</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419923921</v>
       </c>
       <c r="F9">
-        <v>1.038184591162249</v>
+        <v>0.9752238593423137</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033493296518491</v>
+        <v>1.032345726632027</v>
       </c>
       <c r="J9">
-        <v>1.035602870036975</v>
+        <v>0.992776422626806</v>
       </c>
       <c r="K9">
-        <v>1.035722548853969</v>
+        <v>1.004721035152655</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208832515</v>
       </c>
       <c r="M9">
-        <v>1.041340058952694</v>
+        <v>0.9887321234460479</v>
       </c>
       <c r="N9">
-        <v>1.037073544897737</v>
+        <v>0.9941862790199835</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.027145676352406</v>
+        <v>0.9490870753917795</v>
       </c>
       <c r="D10">
-        <v>1.030600351262787</v>
+        <v>0.9788764864956484</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547276</v>
       </c>
       <c r="F10">
-        <v>1.035432826841936</v>
+        <v>0.9582724480832382</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032747840857804</v>
+        <v>1.026152796790182</v>
       </c>
       <c r="J10">
-        <v>1.033539245440912</v>
+        <v>0.9794771824513762</v>
       </c>
       <c r="K10">
-        <v>1.03406535373186</v>
+        <v>0.9936379018023925</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689353</v>
       </c>
       <c r="M10">
-        <v>1.03888045308385</v>
+        <v>0.9734383185567586</v>
       </c>
       <c r="N10">
-        <v>1.035006989718047</v>
+        <v>0.9808681523980601</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.026006812893266</v>
+        <v>0.9412858275309175</v>
       </c>
       <c r="D11">
-        <v>1.029752288524085</v>
+        <v>0.9730567289728284</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016261</v>
       </c>
       <c r="F11">
-        <v>1.034236739362818</v>
+        <v>0.9504491490711549</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032420937170675</v>
+        <v>1.023269855068459</v>
       </c>
       <c r="J11">
-        <v>1.032640465857694</v>
+        <v>0.9733229839960911</v>
       </c>
       <c r="K11">
-        <v>1.033342708972075</v>
+        <v>0.9885052940445042</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416576</v>
       </c>
       <c r="M11">
-        <v>1.037810391950828</v>
+        <v>0.9663701939765479</v>
       </c>
       <c r="N11">
-        <v>1.034106933764728</v>
+        <v>0.9747052142750725</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.025583015825673</v>
+        <v>0.9383033392942907</v>
       </c>
       <c r="D12">
-        <v>1.029436601360021</v>
+        <v>0.9708338377859972</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411973</v>
       </c>
       <c r="F12">
-        <v>1.033791754697762</v>
+        <v>0.947460415595045</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032298885416121</v>
+        <v>1.022164877635247</v>
       </c>
       <c r="J12">
-        <v>1.032305819471107</v>
+        <v>0.9709694932679629</v>
       </c>
       <c r="K12">
-        <v>1.033073512114785</v>
+        <v>0.9865419915447872</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252508</v>
       </c>
       <c r="M12">
-        <v>1.037412148506363</v>
+        <v>0.9636685052078869</v>
       </c>
       <c r="N12">
-        <v>1.033771812141888</v>
+        <v>0.9723483813201611</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.025673957011573</v>
+        <v>0.9389471208071833</v>
       </c>
       <c r="D13">
-        <v>1.029504348272645</v>
+        <v>0.9713135570142458</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>1.033887237625814</v>
+        <v>0.9481054438224643</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032325094330866</v>
+        <v>1.022403514172492</v>
       </c>
       <c r="J13">
-        <v>1.032377638699612</v>
+        <v>0.9714775305849991</v>
       </c>
       <c r="K13">
-        <v>1.033131291008358</v>
+        <v>0.9869658209783397</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.037497608452266</v>
+        <v>0.9642516485803615</v>
       </c>
       <c r="N13">
-        <v>1.033843733361936</v>
+        <v>0.9728571401084599</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.025971797569</v>
+        <v>0.9410410915473423</v>
       </c>
       <c r="D14">
-        <v>1.029726207654176</v>
+        <v>0.9728742794586742</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194313</v>
       </c>
       <c r="F14">
-        <v>1.034199971280934</v>
+        <v>0.9502038554353754</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032410861127038</v>
+        <v>1.023179238660484</v>
       </c>
       <c r="J14">
-        <v>1.032612820287994</v>
+        <v>0.9731298746578863</v>
       </c>
       <c r="K14">
-        <v>1.033320472949335</v>
+        <v>0.9883442098052881</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.9490745509764514</v>
       </c>
       <c r="M14">
-        <v>1.037777488943408</v>
+        <v>0.9661484881425496</v>
       </c>
       <c r="N14">
-        <v>1.034079248935149</v>
+        <v>0.9745118306994571</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.026155204010217</v>
+        <v>0.9423196744933151</v>
       </c>
       <c r="D15">
-        <v>1.029862812166019</v>
+        <v>0.9738275429058157</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.9332781050717477</v>
       </c>
       <c r="F15">
-        <v>1.034392562845135</v>
+        <v>0.9514854412011624</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032463621837193</v>
+        <v>1.023652536975409</v>
       </c>
       <c r="J15">
-        <v>1.032757616988177</v>
+        <v>0.974138716221666</v>
       </c>
       <c r="K15">
-        <v>1.033436931178509</v>
+        <v>0.9891857267303762</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508767195</v>
       </c>
       <c r="M15">
-        <v>1.037949829284238</v>
+        <v>0.9673067759823087</v>
       </c>
       <c r="N15">
-        <v>1.034224251263255</v>
+        <v>0.9755221049339732</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.027221151732975</v>
+        <v>0.9495935550465403</v>
       </c>
       <c r="D16">
-        <v>1.0306565399454</v>
+        <v>0.9792545778568963</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017262</v>
       </c>
       <c r="F16">
-        <v>1.035512109540261</v>
+        <v>0.9587806483937642</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032769449078452</v>
+        <v>1.026339572560083</v>
       </c>
       <c r="J16">
-        <v>1.033598783222627</v>
+        <v>0.9798766262793014</v>
       </c>
       <c r="K16">
-        <v>1.034113205398479</v>
+        <v>0.9939709660643508</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175719</v>
       </c>
       <c r="M16">
-        <v>1.038951361844958</v>
+        <v>0.9738972628663136</v>
       </c>
       <c r="N16">
-        <v>1.035066612050241</v>
+        <v>0.9812681634820382</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.027888437389302</v>
+        <v>0.9540171389200298</v>
       </c>
       <c r="D17">
-        <v>1.031153229434407</v>
+        <v>0.9825580685360461</v>
       </c>
       <c r="E17">
-        <v>0.9894763578477731</v>
+        <v>0.938276015685567</v>
       </c>
       <c r="F17">
-        <v>1.036213137874287</v>
+        <v>0.9632207788533729</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032960179619202</v>
+        <v>1.02796866842506</v>
       </c>
       <c r="J17">
-        <v>1.03412501680262</v>
+        <v>0.9833647277631392</v>
       </c>
       <c r="K17">
-        <v>1.034536048318171</v>
+        <v>0.9968789892461969</v>
       </c>
       <c r="L17">
-        <v>0.9930127773692701</v>
+        <v>0.9534603602068051</v>
       </c>
       <c r="M17">
-        <v>1.039578235570565</v>
+        <v>0.9779059498172551</v>
       </c>
       <c r="N17">
-        <v>1.035593592942277</v>
+        <v>0.9847612184700739</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.028277171787454</v>
+        <v>0.9565504417910945</v>
       </c>
       <c r="D18">
-        <v>1.031442513770082</v>
+        <v>0.9844508856934198</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937551</v>
+        <v>0.9393832867215681</v>
       </c>
       <c r="F18">
-        <v>1.036621597686448</v>
+        <v>0.9657647952706629</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033071032796045</v>
+        <v>1.028899762227267</v>
       </c>
       <c r="J18">
-        <v>1.034431457713723</v>
+        <v>0.9853617406819708</v>
       </c>
       <c r="K18">
-        <v>1.034782197302424</v>
+        <v>0.9985435256928589</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071766</v>
+        <v>0.9543373515865724</v>
       </c>
       <c r="M18">
-        <v>1.039943395815989</v>
+        <v>0.9802018520917382</v>
       </c>
       <c r="N18">
-        <v>1.035900469034623</v>
+        <v>0.9867610673763106</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.028409639004721</v>
+        <v>0.9574065622201147</v>
       </c>
       <c r="D19">
-        <v>1.03154108036797</v>
+        <v>0.9850907094950893</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774039</v>
+        <v>0.939759481468009</v>
       </c>
       <c r="F19">
-        <v>1.036760798213312</v>
+        <v>0.9666247419909377</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033108763775688</v>
+        <v>1.029214101702354</v>
       </c>
       <c r="J19">
-        <v>1.034535861436034</v>
+        <v>0.9860365242798432</v>
       </c>
       <c r="K19">
-        <v>1.034866045337919</v>
+        <v>0.9991059014230302</v>
       </c>
       <c r="L19">
-        <v>0.993264023964098</v>
+        <v>0.954635249381271</v>
       </c>
       <c r="M19">
-        <v>1.040067824385646</v>
+        <v>0.9809777738004573</v>
       </c>
       <c r="N19">
-        <v>1.036005021022195</v>
+        <v>0.9874368092442908</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.027816893955387</v>
+        <v>0.953547450135391</v>
       </c>
       <c r="D20">
-        <v>1.031099983539949</v>
+        <v>0.9822072055044805</v>
       </c>
       <c r="E20">
-        <v>0.9894336180355766</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.036137969634027</v>
+        <v>0.9627492032259231</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032939757120349</v>
+        <v>1.027795886119339</v>
       </c>
       <c r="J20">
-        <v>1.034068608982737</v>
+        <v>0.9829944236957662</v>
       </c>
       <c r="K20">
-        <v>1.034490731858359</v>
+        <v>0.9965703053158432</v>
       </c>
       <c r="L20">
-        <v>0.9929783193490043</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.039511028210014</v>
+        <v>0.9774802918528047</v>
       </c>
       <c r="N20">
-        <v>1.03553710501682</v>
+        <v>0.9843903885284505</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.025884112432458</v>
+        <v>0.9404269041777817</v>
       </c>
       <c r="D21">
-        <v>1.029660894448305</v>
+        <v>0.972416440253086</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668255</v>
+        <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>1.034107898625287</v>
+        <v>0.9495883042270944</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032385622255401</v>
+        <v>1.022951784233172</v>
       </c>
       <c r="J21">
-        <v>1.032543587374487</v>
+        <v>0.9726452388333383</v>
       </c>
       <c r="K21">
-        <v>1.033264785065583</v>
+        <v>0.987939938124394</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198107</v>
+        <v>0.9488714019981065</v>
       </c>
       <c r="M21">
-        <v>1.037695092661263</v>
+        <v>0.9655921060150203</v>
       </c>
       <c r="N21">
-        <v>1.034009917702963</v>
+        <v>0.9740265066364499</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.024664416713426</v>
+        <v>0.9316801907820156</v>
       </c>
       <c r="D22">
-        <v>1.028752147157914</v>
+        <v>0.9659018733886088</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241496</v>
+        <v>0.9288972953651168</v>
       </c>
       <c r="F22">
-        <v>1.032827426118745</v>
+        <v>0.9408276551809867</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032033595237383</v>
+        <v>1.019706121967037</v>
       </c>
       <c r="J22">
-        <v>1.031580111311026</v>
+        <v>0.965742128967044</v>
       </c>
       <c r="K22">
-        <v>1.032489496574212</v>
+        <v>0.9821804976239139</v>
       </c>
       <c r="L22">
-        <v>0.991467000034148</v>
+        <v>0.9460223821572522</v>
       </c>
       <c r="M22">
-        <v>1.036548848078044</v>
+        <v>0.9576701060264402</v>
       </c>
       <c r="N22">
-        <v>1.03304507339298</v>
+        <v>0.9671135935623477</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.025311431745536</v>
+        <v>0.9363682345485466</v>
       </c>
       <c r="D23">
-        <v>1.029234268904342</v>
+        <v>0.9693922173159484</v>
       </c>
       <c r="E23">
-        <v>0.9879432794636459</v>
+        <v>0.9308081199963315</v>
       </c>
       <c r="F23">
-        <v>1.033506622941453</v>
+        <v>0.9455218979340019</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032220556862449</v>
+        <v>1.021447179576144</v>
       </c>
       <c r="J23">
-        <v>1.032091312859189</v>
+        <v>0.9694423307601708</v>
       </c>
       <c r="K23">
-        <v>1.032900921366602</v>
+        <v>0.9852678951913245</v>
       </c>
       <c r="L23">
-        <v>0.9917760702887607</v>
+        <v>0.947539133028532</v>
       </c>
       <c r="M23">
-        <v>1.037156926240858</v>
+        <v>0.9619157603179765</v>
       </c>
       <c r="N23">
-        <v>1.033557000905977</v>
+        <v>0.9708190500664401</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.027849222842695</v>
+        <v>0.9537598264399596</v>
       </c>
       <c r="D24">
-        <v>1.031124044384578</v>
+        <v>0.9823658501040685</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347241</v>
+        <v>0.938164042401171</v>
       </c>
       <c r="F24">
-        <v>1.036171936279713</v>
+        <v>0.9629624288501658</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032948986394242</v>
+        <v>1.027874017838867</v>
       </c>
       <c r="J24">
-        <v>1.034094098800077</v>
+        <v>0.983161863568794</v>
       </c>
       <c r="K24">
-        <v>1.034511209924021</v>
+        <v>0.9967098836544935</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766438</v>
+        <v>0.9533716596442452</v>
       </c>
       <c r="M24">
-        <v>1.039541397820351</v>
+        <v>0.9776727583907505</v>
       </c>
       <c r="N24">
-        <v>1.035562631032624</v>
+        <v>0.9845580661853035</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.030775346904531</v>
+        <v>0.972123241327844</v>
       </c>
       <c r="D25">
-        <v>1.033300350254968</v>
+        <v>0.9961000946178823</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607046</v>
+        <v>0.9463835801717733</v>
       </c>
       <c r="F25">
-        <v>1.03924776532729</v>
+        <v>0.9814238393127735</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033778748752085</v>
+        <v>1.0345894851849</v>
       </c>
       <c r="J25">
-        <v>1.036398573462286</v>
+        <v>0.9976266206164616</v>
       </c>
       <c r="K25">
-        <v>1.036360756004403</v>
+        <v>1.008759254783584</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426411</v>
+        <v>0.9598754494005611</v>
       </c>
       <c r="M25">
-        <v>1.042289498540844</v>
+        <v>0.9943175377713894</v>
       </c>
       <c r="N25">
-        <v>1.037870378313181</v>
+        <v>0.9990433648471094</v>
       </c>
     </row>
   </sheetData>
